--- a/public/import/ExampleImport-Biodata.xlsx
+++ b/public/import/ExampleImport-Biodata.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\apk_gaji_karyawan\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{039495A0-104B-4BF2-A1BC-01BC66A8D121}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CE8E0A-D44E-4FE6-B3E2-E2F27348874C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1EC77174-6412-46FB-BD9D-49DB633D89B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="98">
   <si>
     <t>Nama</t>
   </si>
@@ -60,9 +63,6 @@
     <t>Tgl Mulai Kerja</t>
   </si>
   <si>
-    <t>Tgl Keluar</t>
-  </si>
-  <si>
     <t>Title Plan</t>
   </si>
   <si>
@@ -93,12 +93,6 @@
     <t>Kode Tunj. Bonus Produksi</t>
   </si>
   <si>
-    <t>Kode BPJS ketenagakerjaan</t>
-  </si>
-  <si>
-    <t>Kode BPJS Medika</t>
-  </si>
-  <si>
     <t>Kode PTKP</t>
   </si>
   <si>
@@ -148,13 +142,206 @@
   </si>
   <si>
     <t>Fas Kesehatan</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Tgl  gaji</t>
+  </si>
+  <si>
+    <t>Lama Kerja</t>
+  </si>
+  <si>
+    <t>Kode BPJS JK</t>
+  </si>
+  <si>
+    <t>Kode BPJS JKK</t>
+  </si>
+  <si>
+    <t>Kode BPJS JHT</t>
+  </si>
+  <si>
+    <t>Kode BPJS JP</t>
+  </si>
+  <si>
+    <t>Kode BPJS M</t>
+  </si>
+  <si>
+    <t>AKDHK</t>
+  </si>
+  <si>
+    <t>IGD</t>
+  </si>
+  <si>
+    <t>SPN</t>
+  </si>
+  <si>
+    <t>JHT-EPL</t>
+  </si>
+  <si>
+    <t>JP-EPL</t>
+  </si>
+  <si>
+    <t>JM-EPL</t>
+  </si>
+  <si>
+    <t>PT SWI</t>
+  </si>
+  <si>
+    <t>AZWAR</t>
+  </si>
+  <si>
+    <t>50FZ000ZA2</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>78.676.628.7-002.000</t>
+  </si>
+  <si>
+    <t>X / 2 / P2</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>TK/0</t>
+  </si>
+  <si>
+    <t>AMRULLAh</t>
+  </si>
+  <si>
+    <t>49.109.651.7-002.000</t>
+  </si>
+  <si>
+    <t>W / 3</t>
+  </si>
+  <si>
+    <t>W10</t>
+  </si>
+  <si>
+    <t>W25</t>
+  </si>
+  <si>
+    <t>K/3</t>
+  </si>
+  <si>
+    <t>ELLENSARI</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>49.109.495.9-017.000</t>
+  </si>
+  <si>
+    <t>F (7B)</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>K/0</t>
+  </si>
+  <si>
+    <t>MUTIARASARI</t>
+  </si>
+  <si>
+    <t>69.703.608.5-403.000</t>
+  </si>
+  <si>
+    <t>T(TA)/ 5</t>
+  </si>
+  <si>
+    <t>TA18</t>
+  </si>
+  <si>
+    <t>TA5</t>
+  </si>
+  <si>
+    <t>ARYADI</t>
+  </si>
+  <si>
+    <t>79.138.795.4-034.000</t>
+  </si>
+  <si>
+    <t>KOSTIANAS</t>
+  </si>
+  <si>
+    <t>75.556.417.6-401.000</t>
+  </si>
+  <si>
+    <t>U / 4U</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>TK/3</t>
+  </si>
+  <si>
+    <t>ADELINATA</t>
+  </si>
+  <si>
+    <t>71.522.421.8-219.000</t>
+  </si>
+  <si>
+    <t>K/1</t>
+  </si>
+  <si>
+    <t>NOVARINGN</t>
+  </si>
+  <si>
+    <t>82.190.577.5-801.000</t>
+  </si>
+  <si>
+    <t>K/2</t>
+  </si>
+  <si>
+    <t>LIADAHLIA</t>
+  </si>
+  <si>
+    <t>49.109.489.2-048.000</t>
+  </si>
+  <si>
+    <t>TK/1</t>
+  </si>
+  <si>
+    <t>EFREEANIT</t>
+  </si>
+  <si>
+    <t>83.536.581.8-005.000</t>
+  </si>
+  <si>
+    <t>TK/2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,23 +351,45 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -198,7 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,26 +436,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7745A348-0C70-4563-9C8C-E8152AE9DC5F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -259,6 +490,424 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master file"/>
+      <sheetName val="Biodata"/>
+      <sheetName val="A 2301"/>
+      <sheetName val="P 2301"/>
+      <sheetName val="Absen 2301"/>
+      <sheetName val="Payroll 2301"/>
+      <sheetName val="PPh21"/>
+      <sheetName val="Sheet5"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet6"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="K2" t="str">
+            <v>UPAH TETAP</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="K3" t="str">
+            <v>T. Berkala</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>Amount</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="K4" t="str">
+            <v>年資</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>0</v>
+          </cell>
+          <cell r="L5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>1</v>
+          </cell>
+          <cell r="L6">
+            <v>5000</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="K7">
+            <v>2</v>
+          </cell>
+          <cell r="L7">
+            <v>11000</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="K8">
+            <v>3</v>
+          </cell>
+          <cell r="L8">
+            <v>14000</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="K9">
+            <v>4</v>
+          </cell>
+          <cell r="L9">
+            <v>18000</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="K10">
+            <v>5</v>
+          </cell>
+          <cell r="L10">
+            <v>21000</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="K11">
+            <v>6</v>
+          </cell>
+          <cell r="L11">
+            <v>24000</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="K12">
+            <v>7</v>
+          </cell>
+          <cell r="L12">
+            <v>27000</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="K13">
+            <v>8</v>
+          </cell>
+          <cell r="L13">
+            <v>30000</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="K14">
+            <v>9</v>
+          </cell>
+          <cell r="L14">
+            <v>33000</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="K15">
+            <v>10</v>
+          </cell>
+          <cell r="L15">
+            <v>36000</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="K16">
+            <v>11</v>
+          </cell>
+          <cell r="L16">
+            <v>39000</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="K17">
+            <v>12</v>
+          </cell>
+          <cell r="L17">
+            <v>42000</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="K18">
+            <v>13</v>
+          </cell>
+          <cell r="L18">
+            <v>45000</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="K19">
+            <v>14</v>
+          </cell>
+          <cell r="L19">
+            <v>48000</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="K20">
+            <v>15</v>
+          </cell>
+          <cell r="L20">
+            <v>51000</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="K21">
+            <v>16</v>
+          </cell>
+          <cell r="L21">
+            <v>54000</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="K22">
+            <v>17</v>
+          </cell>
+          <cell r="L22">
+            <v>57000</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="K23">
+            <v>18</v>
+          </cell>
+          <cell r="L23">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="K24">
+            <v>19</v>
+          </cell>
+          <cell r="L24">
+            <v>63000</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="K25">
+            <v>20</v>
+          </cell>
+          <cell r="L25">
+            <v>63000</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="K26">
+            <v>21</v>
+          </cell>
+          <cell r="L26">
+            <v>66000</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="K27">
+            <v>22</v>
+          </cell>
+          <cell r="L27">
+            <v>69000</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="K28">
+            <v>23</v>
+          </cell>
+          <cell r="L28">
+            <v>69000</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="K29">
+            <v>24</v>
+          </cell>
+          <cell r="L29">
+            <v>69000</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="K30">
+            <v>25</v>
+          </cell>
+          <cell r="L30">
+            <v>69000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="K31">
+            <v>26</v>
+          </cell>
+          <cell r="L31">
+            <v>69000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="K32">
+            <v>27</v>
+          </cell>
+          <cell r="L32">
+            <v>69000</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="K33">
+            <v>28</v>
+          </cell>
+          <cell r="L33">
+            <v>69000</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="K34">
+            <v>29</v>
+          </cell>
+          <cell r="L34">
+            <v>69000</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="K35">
+            <v>30</v>
+          </cell>
+          <cell r="L35">
+            <v>69000</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="K36">
+            <v>31</v>
+          </cell>
+          <cell r="L36">
+            <v>69000</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="K37">
+            <v>32</v>
+          </cell>
+          <cell r="L37">
+            <v>69000</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="K38">
+            <v>33</v>
+          </cell>
+          <cell r="L38">
+            <v>69000</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="K39">
+            <v>34</v>
+          </cell>
+          <cell r="L39">
+            <v>69000</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="K40">
+            <v>35</v>
+          </cell>
+          <cell r="L40">
+            <v>69000</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="K41">
+            <v>36</v>
+          </cell>
+          <cell r="L41">
+            <v>69000</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="K42">
+            <v>37</v>
+          </cell>
+          <cell r="L42">
+            <v>69000</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="K43">
+            <v>38</v>
+          </cell>
+          <cell r="L43">
+            <v>69000</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="K44">
+            <v>39</v>
+          </cell>
+          <cell r="L44">
+            <v>69000</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="K45">
+            <v>40</v>
+          </cell>
+          <cell r="L45">
+            <v>69000</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="K46">
+            <v>41</v>
+          </cell>
+          <cell r="L46">
+            <v>69000</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="K47">
+            <v>42</v>
+          </cell>
+          <cell r="L47">
+            <v>69000</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="K48">
+            <v>43</v>
+          </cell>
+          <cell r="L48">
+            <v>69000</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="K49">
+            <v>44</v>
+          </cell>
+          <cell r="L49">
+            <v>69000</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="K50">
+            <v>45</v>
+          </cell>
+          <cell r="L50">
+            <v>69000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -558,128 +1207,1247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738F2E78-B070-4D02-977F-BB39DE9E8183}">
-  <dimension ref="A1:AL1"/>
+  <dimension ref="A1:AX11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="W1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AI1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AK1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AR1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AS1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AT1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AU1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AV1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AW1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AX1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>37</v>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4">
+        <v>502926</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2">
+        <v>12324424525</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2">
+        <v>22</v>
+      </c>
+      <c r="J2" s="7">
+        <v>36589</v>
+      </c>
+      <c r="K2" s="7">
+        <v>44928</v>
+      </c>
+      <c r="L2">
+        <f>ROUND(YEARFRAC(J2,K2,3),0)</f>
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="9">
+        <f>VLOOKUP(L2,'[1]Master file'!K:L,2,0)</f>
+        <v>69000</v>
+      </c>
+      <c r="R2" s="10" t="str">
+        <f>O2</f>
+        <v>X20</v>
+      </c>
+      <c r="S2" s="10" t="str">
+        <f>O2</f>
+        <v>X20</v>
+      </c>
+      <c r="T2" s="10" t="str">
+        <f>O2</f>
+        <v>X20</v>
+      </c>
+      <c r="U2" s="10" t="str">
+        <f>O2</f>
+        <v>X20</v>
+      </c>
+      <c r="V2" s="10" t="str">
+        <f>O2</f>
+        <v>X20</v>
+      </c>
+      <c r="W2" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X2" s="12">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="Y2" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="Z2" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AA2" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="AB2" s="12">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="AC2" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AD2" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE2" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AF2" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AG2" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="4">
+        <v>502928</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>12324424525</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3">
+        <v>23</v>
+      </c>
+      <c r="J3" s="7">
+        <v>40606</v>
+      </c>
+      <c r="K3" s="7">
+        <v>44928</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="0">ROUND(YEARFRAC(J3,K3,3),0)</f>
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="9">
+        <f>VLOOKUP(L3,'[1]Master file'!K:L,2,0)</f>
+        <v>42000</v>
+      </c>
+      <c r="R3" s="10" t="str">
+        <f t="shared" ref="R3:R11" si="1">O3</f>
+        <v>W10</v>
+      </c>
+      <c r="S3" s="10" t="str">
+        <f t="shared" ref="S3:S11" si="2">O3</f>
+        <v>W10</v>
+      </c>
+      <c r="T3" s="10" t="str">
+        <f t="shared" ref="T3:T11" si="3">O3</f>
+        <v>W10</v>
+      </c>
+      <c r="U3" s="10" t="str">
+        <f t="shared" ref="U3:U11" si="4">O3</f>
+        <v>W10</v>
+      </c>
+      <c r="V3" s="10" t="str">
+        <f t="shared" ref="V3:V11" si="5">O3</f>
+        <v>W10</v>
+      </c>
+      <c r="W3" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X3" s="12">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="Z3" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AA3" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AD3" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE3" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AF3" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AG3" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="4">
+        <v>502929</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4">
+        <v>12324424525</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4" s="7">
+        <v>36223</v>
+      </c>
+      <c r="K4" s="7">
+        <v>44928</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="9">
+        <f>VLOOKUP(L4,'[1]Master file'!K:L,2,0)</f>
+        <v>69000</v>
+      </c>
+      <c r="R4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>F22</v>
+      </c>
+      <c r="S4" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>F22</v>
+      </c>
+      <c r="T4" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F22</v>
+      </c>
+      <c r="U4" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>F22</v>
+      </c>
+      <c r="V4" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>F22</v>
+      </c>
+      <c r="W4" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X4" s="12">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="Z4" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="AB4" s="12">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="AC4" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AD4" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE4" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AF4" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AG4" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="4">
+        <v>502931</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <v>12324424525</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
+      <c r="J5" s="7">
+        <v>36223</v>
+      </c>
+      <c r="K5" s="7">
+        <v>44928</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>VLOOKUP(L5,'[1]Master file'!K:L,2,0)</f>
+        <v>69000</v>
+      </c>
+      <c r="R5" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>TA18</v>
+      </c>
+      <c r="S5" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>TA18</v>
+      </c>
+      <c r="T5" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>TA18</v>
+      </c>
+      <c r="U5" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>TA18</v>
+      </c>
+      <c r="V5" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>TA18</v>
+      </c>
+      <c r="W5" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X5" s="12">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AA5" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="AB5" s="12">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="AC5" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE5" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AF5" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AG5" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4">
+        <v>502933</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6">
+        <v>12324424525</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6">
+        <v>22</v>
+      </c>
+      <c r="J6" s="7">
+        <v>42067</v>
+      </c>
+      <c r="K6" s="7">
+        <v>44928</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" s="9">
+        <f>VLOOKUP(L6,'[1]Master file'!K:L,2,0)</f>
+        <v>30000</v>
+      </c>
+      <c r="R6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>X20</v>
+      </c>
+      <c r="S6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>X20</v>
+      </c>
+      <c r="T6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>X20</v>
+      </c>
+      <c r="U6" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>X20</v>
+      </c>
+      <c r="V6" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>X20</v>
+      </c>
+      <c r="W6" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X6" s="12">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AA6" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="AB6" s="12">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="AC6" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AD6" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE6" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AF6" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AG6" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="4">
+        <v>502956</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <v>12324424525</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7" s="7">
+        <v>40606</v>
+      </c>
+      <c r="K7" s="7">
+        <v>44928</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7" s="9">
+        <f>VLOOKUP(L7,'[1]Master file'!K:L,2,0)</f>
+        <v>42000</v>
+      </c>
+      <c r="R7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>U8</v>
+      </c>
+      <c r="S7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>U8</v>
+      </c>
+      <c r="T7" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>U8</v>
+      </c>
+      <c r="U7" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>U8</v>
+      </c>
+      <c r="V7" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>U8</v>
+      </c>
+      <c r="W7" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X7" s="12">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AA7" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="AB7" s="12">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE7" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AF7" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AG7" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AH7" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="4">
+        <v>503095</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8">
+        <v>12324424525</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8" s="7">
+        <v>43894</v>
+      </c>
+      <c r="K8" s="7">
+        <v>44928</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q8" s="9">
+        <f>VLOOKUP(L8,'[1]Master file'!K:L,2,0)</f>
+        <v>14000</v>
+      </c>
+      <c r="R8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>X20</v>
+      </c>
+      <c r="S8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>X20</v>
+      </c>
+      <c r="T8" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>X20</v>
+      </c>
+      <c r="U8" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>X20</v>
+      </c>
+      <c r="V8" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>X20</v>
+      </c>
+      <c r="W8" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X8" s="12">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AA8" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="AB8" s="12">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="AC8" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE8" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AF8" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AG8" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AH8" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="4">
+        <v>503097</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9">
+        <v>12324424525</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9" s="7">
+        <v>44259</v>
+      </c>
+      <c r="K9" s="7">
+        <v>44928</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q9" s="9">
+        <f>VLOOKUP(L9,'[1]Master file'!K:L,2,0)</f>
+        <v>11000</v>
+      </c>
+      <c r="R9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>X20</v>
+      </c>
+      <c r="S9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>X20</v>
+      </c>
+      <c r="T9" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>X20</v>
+      </c>
+      <c r="U9" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>X20</v>
+      </c>
+      <c r="V9" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>X20</v>
+      </c>
+      <c r="W9" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X9" s="12">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AA9" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="AB9" s="12">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="AC9" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AD9" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE9" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AF9" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AG9" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AH9" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="4">
+        <v>503099</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10">
+        <v>12324424525</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10" s="7">
+        <v>44624</v>
+      </c>
+      <c r="K10" s="7">
+        <v>44928</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" s="9">
+        <f>VLOOKUP(L10,'[1]Master file'!K:L,2,0)</f>
+        <v>5000</v>
+      </c>
+      <c r="R10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>X20</v>
+      </c>
+      <c r="S10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>X20</v>
+      </c>
+      <c r="T10" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>X20</v>
+      </c>
+      <c r="U10" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>X20</v>
+      </c>
+      <c r="V10" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>X20</v>
+      </c>
+      <c r="W10" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X10" s="12">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AA10" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="AB10" s="12">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="AC10" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AD10" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE10" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AF10" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AG10" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AH10" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="4">
+        <v>503100</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11">
+        <v>12324424525</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11" s="7">
+        <v>44624</v>
+      </c>
+      <c r="K11" s="7">
+        <v>44928</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="9">
+        <f>VLOOKUP(L11,'[1]Master file'!K:L,2,0)</f>
+        <v>5000</v>
+      </c>
+      <c r="R11" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>X20</v>
+      </c>
+      <c r="S11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>X20</v>
+      </c>
+      <c r="T11" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>X20</v>
+      </c>
+      <c r="U11" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>X20</v>
+      </c>
+      <c r="V11" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>X20</v>
+      </c>
+      <c r="W11" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X11" s="12">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AA11" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="AB11" s="12">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="AC11" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE11" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="AF11" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AG11" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AH11" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
